--- a/metrics/MAPE/average & upto/Enfermedad renal terminal.xlsx
+++ b/metrics/MAPE/average & upto/Enfermedad renal terminal.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676018386138.7739</v>
+        <v>763263224735.7888</v>
       </c>
       <c r="C3" t="n">
-        <v>754424207609.9055</v>
+        <v>708920188221.7859</v>
       </c>
       <c r="D3" t="n">
-        <v>744991028029.2328</v>
+        <v>701583943604.9031</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1662908386754.045</v>
+        <v>1661693810256.436</v>
       </c>
       <c r="C4" t="n">
-        <v>1695383636133.687</v>
+        <v>1670376560280.23</v>
       </c>
       <c r="D4" t="n">
-        <v>1654836040224.437</v>
+        <v>1679683950195.353</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4801876369567.216</v>
+        <v>15601723084157.83</v>
       </c>
       <c r="C5" t="n">
-        <v>12468160069440.08</v>
+        <v>17397445438813.66</v>
       </c>
       <c r="D5" t="n">
-        <v>25565364366726.29</v>
+        <v>30193715842380.34</v>
       </c>
     </row>
   </sheetData>
